--- a/assets/files/Ambiente1.xlsx
+++ b/assets/files/Ambiente1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8544"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>Ambato</t>
   </si>
@@ -158,6 +158,99 @@
   </si>
   <si>
     <t>BD1T04</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1503</t>
+  </si>
+  <si>
+    <t>0301</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>0302</t>
+  </si>
+  <si>
+    <t>0303</t>
+  </si>
+  <si>
+    <t>1103</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>0906</t>
+  </si>
+  <si>
+    <t>0306</t>
+  </si>
+  <si>
+    <t>1107</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>0703</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>0105</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>0504</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>0601</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>1501</t>
+  </si>
+  <si>
+    <t>0401</t>
+  </si>
+  <si>
+    <t>1901</t>
   </si>
 </sst>
 </file>
@@ -246,7 +339,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -254,10 +347,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,68 +659,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="V36" sqref="V36"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1801</v>
+      <c r="A2" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -678,8 +770,8 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1503</v>
+      <c r="A3" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -731,8 +823,8 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>301</v>
+      <c r="A4" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -784,8 +876,8 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1802</v>
+      <c r="A5" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -837,8 +929,8 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>302</v>
+      <c r="A6" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -890,8 +982,8 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>303</v>
+      <c r="A7" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -943,8 +1035,8 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1103</v>
+      <c r="A8" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -996,8 +1088,8 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>1702</v>
+      <c r="A9" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -1049,8 +1141,8 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1902</v>
+      <c r="A10" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
@@ -1102,8 +1194,8 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>1003</v>
+      <c r="A11" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>9</v>
@@ -1155,8 +1247,8 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>906</v>
+      <c r="A12" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
@@ -1208,8 +1300,8 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>306</v>
+      <c r="A13" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
@@ -1261,8 +1353,8 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>1107</v>
+      <c r="A14" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -1314,8 +1406,8 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>1001</v>
+      <c r="A15" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -1367,8 +1459,8 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>2101</v>
+      <c r="A16" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>14</v>
@@ -1420,8 +1512,8 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>1101</v>
+      <c r="A17" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -1465,8 +1557,8 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>1703</v>
+      <c r="A18" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>16</v>
@@ -1518,8 +1610,8 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>1903</v>
+      <c r="A19" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>17</v>
@@ -1571,8 +1663,8 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>2201</v>
+      <c r="A20" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>18</v>
@@ -1624,8 +1716,8 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>1004</v>
+      <c r="A21" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>19</v>
@@ -1677,8 +1769,8 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>105</v>
+      <c r="A22" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>20</v>
@@ -1730,8 +1822,8 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>1704</v>
+      <c r="A23" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>21</v>
@@ -1783,8 +1875,8 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>1709</v>
+      <c r="A24" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>22</v>
@@ -1836,8 +1928,8 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>504</v>
+      <c r="A25" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>23</v>
@@ -1889,8 +1981,8 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>1701</v>
+      <c r="A26" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>24</v>
@@ -1942,8 +2034,8 @@
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>601</v>
+      <c r="A27" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>25</v>
@@ -1995,8 +2087,8 @@
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>1707</v>
+      <c r="A28" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>26</v>
@@ -2048,8 +2140,8 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>1111</v>
+      <c r="A29" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>27</v>
@@ -2101,8 +2193,8 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>1501</v>
+      <c r="A30" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>28</v>
@@ -2154,8 +2246,8 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>401</v>
+      <c r="A31" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>29</v>
@@ -2207,22 +2299,22 @@
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>1901</v>
+      <c r="A32" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="7">
         <v>6.666666666666667</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="7">
         <v>86.666666666666671</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="7">
         <v>6.666666666666667</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="7">
         <v>0</v>
       </c>
       <c r="G32" s="3">
